--- a/immobilised_biocatalysts/immobilised_biocatalyst.xlsx
+++ b/immobilised_biocatalysts/immobilised_biocatalyst.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephan\Desktop\repos\Matplotlib-data-visualisation-IBG1\immobilised_biocatalysts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9107E5A8-7AD7-49B4-9A8E-6EA71907B263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB7CDE-6EC6-4FA5-890B-58A683CBBB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2498" windowWidth="13680" windowHeight="11115" activeTab="2" xr2:uid="{DD69CF14-8DD0-49C5-A715-E4908E9EDDDE}"/>
+    <workbookView xWindow="705" yWindow="705" windowWidth="13680" windowHeight="11115" activeTab="3" xr2:uid="{DD69CF14-8DD0-49C5-A715-E4908E9EDDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Opal1" sheetId="1" r:id="rId1"/>
     <sheet name="Coral" sheetId="2" r:id="rId2"/>
     <sheet name="Amber" sheetId="3" r:id="rId3"/>
-    <sheet name="Scale-up-50-mL-exp1" sheetId="4" r:id="rId4"/>
+    <sheet name="Amber u and s" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>Sample [min]</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>3-OH-PAC-2</t>
+  </si>
+  <si>
+    <t>3-OH-PAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stabw 3-OH-BA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">stabw 3-OH-PAC </t>
   </si>
 </sst>
 </file>
@@ -942,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA827903-C5EC-4D68-840F-3283E6C23197}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1212,252 +1221,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CBB6A5-C4FA-4342-BB6B-4BF68A56142F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>38.485669219154438</v>
+      </c>
+      <c r="C2">
+        <v>-2.4982813494589431</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>65.666403282950583</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>18.736693809318378</v>
+      </c>
+      <c r="C3">
+        <v>3.0477533499812304</v>
+      </c>
+      <c r="D3">
+        <v>1.0486921409173484</v>
+      </c>
+      <c r="E3">
+        <v>0.19328366832280547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14.938969477998276</v>
+      </c>
+      <c r="C4">
+        <v>6.9975485155625199</v>
+      </c>
+      <c r="D4">
+        <v>0.48320418940266002</v>
+      </c>
+      <c r="E4">
+        <v>0.26353990294523366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>8.8332209879206207</v>
+      </c>
+      <c r="C5">
+        <v>13.477171163230997</v>
+      </c>
+      <c r="D5">
+        <v>0.60645248402813801</v>
+      </c>
+      <c r="E5">
+        <v>0.52434350046354539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>9.9039797089196205E-2</v>
-      </c>
-      <c r="C3">
-        <v>45.000807143646078</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="B6">
+        <v>4.3209798317515098</v>
+      </c>
+      <c r="C6">
+        <v>18.412782973444973</v>
+      </c>
+      <c r="D6">
+        <v>0.44745822553372266</v>
+      </c>
+      <c r="E6">
+        <v>0.26012139010770868</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1.4170756039689387</v>
+      </c>
+      <c r="C7">
+        <v>22.450714064208654</v>
+      </c>
+      <c r="D7">
+        <v>0.2259178818525126</v>
+      </c>
+      <c r="E7">
+        <v>0.15675408057638143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.19835256686798966</v>
+      </c>
+      <c r="C8">
+        <v>23.550780982225916</v>
+      </c>
+      <c r="D8">
+        <v>5.1300414124354148E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.2129211667080411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0.29696841596714774</v>
-      </c>
-      <c r="C4">
-        <v>71.025029949277396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0.29581093866376795</v>
-      </c>
-      <c r="C5">
-        <v>55.495883567404995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.29611288926464963</v>
-      </c>
-      <c r="C6">
-        <v>45.393461286841863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>0.37804215230388305</v>
-      </c>
-      <c r="C7">
-        <v>44.966949591755245</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>0.42796465164965675</v>
-      </c>
-      <c r="C8">
-        <v>42.916294955777026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>21</v>
-      </c>
       <c r="B9">
-        <v>0.51774463031181439</v>
+        <v>-0.20474277394305432</v>
       </c>
       <c r="C9">
-        <v>46.646997850449033</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>24.164468164977393</v>
+      </c>
+      <c r="D9">
+        <v>5.130041412435403E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.34911157609362276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
+        <v>20.3</v>
+      </c>
+      <c r="B10">
+        <v>-0.57952707075064713</v>
+      </c>
+      <c r="C10">
+        <v>22.369106726076808</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.60749195352518692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>0.54804034060027773</v>
-      </c>
-      <c r="C10">
-        <v>44.922641653709888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>27</v>
-      </c>
       <c r="B11">
-        <v>0.73358898484207991</v>
+        <v>-0.57952707075064713</v>
       </c>
       <c r="C11">
-        <v>57.177928444591714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0.56218169374157057</v>
-      </c>
-      <c r="C12">
-        <v>44.362993738264549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>33</v>
-      </c>
-      <c r="B13">
-        <v>0.58044970509491312</v>
-      </c>
-      <c r="C13">
-        <v>45.466826396146097</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>0.58548221510960807</v>
-      </c>
-      <c r="C14">
-        <v>45.856549333469268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>39</v>
-      </c>
-      <c r="B15">
-        <v>0.56812005555891054</v>
-      </c>
-      <c r="C15">
-        <v>44.020340019881218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>42</v>
-      </c>
-      <c r="B16">
-        <v>0.58286530990196661</v>
-      </c>
-      <c r="C16">
-        <v>45.707142796455365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>45</v>
-      </c>
-      <c r="B17">
-        <v>0.57748052418624307</v>
-      </c>
-      <c r="C17">
-        <v>44.687380521499755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>48</v>
-      </c>
-      <c r="B18">
-        <v>0.59947259295045996</v>
-      </c>
-      <c r="C18">
-        <v>47.087400912497138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>0.59318195543209129</v>
-      </c>
-      <c r="C19">
-        <v>46.962463572332808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>1.0868208627735167</v>
-      </c>
-      <c r="C20">
-        <v>77.013865878214773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>0.58226140870020326</v>
-      </c>
-      <c r="C21">
-        <v>45.421626351965607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>60</v>
-      </c>
-      <c r="B22">
-        <v>0.59771121444531672</v>
-      </c>
-      <c r="C22">
-        <v>47.558263026873625</v>
+        <v>21.494276061303427</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.51800543134458821</v>
       </c>
     </row>
   </sheetData>
